--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value251.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value251.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195838613604638</v>
+        <v>1.244275331497192</v>
       </c>
       <c r="B1">
-        <v>1.198633993426905</v>
+        <v>2.269115447998047</v>
       </c>
       <c r="C1">
-        <v>1.277030575657166</v>
+        <v>2.954982042312622</v>
       </c>
       <c r="D1">
-        <v>1.783768585387583</v>
+        <v>3.422497749328613</v>
       </c>
       <c r="E1">
-        <v>3.206366167857374</v>
+        <v>1.742268800735474</v>
       </c>
     </row>
   </sheetData>
